--- a/Students Aggregates.xlsx
+++ b/Students Aggregates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAMURITALA\Documents\Query Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AE18FDD-5686-463B-ACA0-13C977B67955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818B0DAE-DA48-4A7B-B611-5E20BE6B6A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="960" windowWidth="15510" windowHeight="10560" xr2:uid="{8C5C29E0-D6F7-4553-8527-3CFB7632D6C3}"/>
+    <workbookView xWindow="1950" yWindow="960" windowWidth="15510" windowHeight="10560" xr2:uid="{8C5C29E0-D6F7-4553-8527-3CFB7632D6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H1" activeCellId="1" sqref="B1:C6 H1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
